--- a/tempi-raggiungimento.xlsx
+++ b/tempi-raggiungimento.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D233E-63E1-47F7-893B-3668F356F6F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0885D9A-E47E-4387-8130-9846C837A5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="totale" sheetId="1" r:id="rId1"/>
+    <sheet name="target" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -296,7 +296,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$2:$A$13</c:f>
+              <c:f>totale!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -340,7 +340,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$2:$D$13</c:f>
+              <c:f>totale!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -819,7 +819,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$2:$A$13</c:f>
+              <c:f>totale!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -863,7 +863,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$2:$B$13</c:f>
+              <c:f>totale!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1114,7 +1114,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$2:$A$13</c:f>
+              <c:f>totale!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1158,7 +1158,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$2:$D$13</c:f>
+              <c:f>totale!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1242,7 +1242,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$2:$E$13</c:f>
+              <c:f>totale!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1615,7 +1615,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Foglio1!$D$2:$D$13,Foglio1!$D$28)</c:f>
+              <c:f>(totale!$D$2:$D$13,totale!$D$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1663,7 +1663,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Foglio1!$E$2:$E$13,Foglio1!$E$28)</c:f>
+              <c:f>(totale!$E$2:$E$13,totale!$E$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4478,8 +4478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4815,8 +4815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D6BE71-6A5F-4BDF-96C8-9ABAC8704ABD}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4834,7 +4834,7 @@
         <v>120</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4842,7 +4842,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -4850,7 +4850,7 @@
         <v>90</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4858,7 +4858,7 @@
         <v>100</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -4866,7 +4866,7 @@
         <v>120</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4874,7 +4874,7 @@
         <v>100</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4882,7 +4882,7 @@
         <v>130</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -4890,7 +4890,7 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -4898,7 +4898,7 @@
         <v>70</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -4906,7 +4906,7 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -4914,7 +4914,7 @@
         <v>120</v>
       </c>
       <c r="B12">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -4922,7 +4922,7 @@
         <v>100</v>
       </c>
       <c r="B13">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tempi-raggiungimento.xlsx
+++ b/tempi-raggiungimento.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0885D9A-E47E-4387-8130-9846C837A5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B6EB52-B076-46E7-918E-B7043C6F0C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="totale" sheetId="1" r:id="rId1"/>
     <sheet name="target" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>plot</t>
   </si>
@@ -4478,8 +4479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="D2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4928,4 +4929,123 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D0D176-E383-4BBD-A8E9-D4BE0E35841E}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>120</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>120</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>130</v>
+      </c>
+      <c r="B8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tempi-raggiungimento.xlsx
+++ b/tempi-raggiungimento.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B6EB52-B076-46E7-918E-B7043C6F0C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F3CBAF-4AD8-486E-BCD8-8FC3A56DE4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="totale" sheetId="1" r:id="rId1"/>
     <sheet name="target" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio1" sheetId="3" r:id="rId3"/>
+    <sheet name="accumulo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>plot</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>n1</t>
   </si>
 </sst>
 </file>
@@ -4480,7 +4489,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="D2:E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4933,116 +4942,347 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D0D176-E383-4BBD-A8E9-D4BE0E35841E}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <f>B2</f>
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:I2" si="0">C2</f>
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
+      <c r="G3">
+        <f>B2+B3</f>
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:I3" si="1">C2+C3</f>
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>120</v>
-      </c>
-      <c r="B2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <f>SUM(B2:B4)</f>
+        <v>89</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:I4" si="2">SUM(C2:C4)</f>
+        <v>62</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
         <v>24</v>
       </c>
+      <c r="G5">
+        <f>SUM(B2:B5)</f>
+        <v>115</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:I5" si="3">SUM(C2:C5)</f>
+        <v>83</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>60</v>
-      </c>
-      <c r="B3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
         <v>12</v>
       </c>
+      <c r="G6">
+        <f>SUM(B2:B6)</f>
+        <v>139</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:I6" si="4">SUM(C2:C6)</f>
+        <v>99</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>90</v>
-      </c>
-      <c r="B4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <f>SUM(B2:B7)</f>
+        <v>151</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:I7" si="5">SUM(C2:C7)</f>
+        <v>122</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>26</v>
       </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <f>SUM(B2:B8)</f>
+        <v>177</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:I8" si="6">SUM(C2:C8)</f>
+        <v>159</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>100</v>
-      </c>
-      <c r="B5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>21</v>
       </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <f>SUM(B2:B9)</f>
+        <v>198</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:I9" si="7">SUM(C2:C9)</f>
+        <v>171</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>120</v>
-      </c>
-      <c r="B6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>16</v>
       </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <f>SUM(B2:B10)</f>
+        <v>214</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:I10" si="8">SUM(C2:C10)</f>
+        <v>195</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="8"/>
+        <v>197</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>23</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <f>SUM(B2:B11)</f>
+        <v>226</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:I11" si="9">SUM(C2:C11)</f>
+        <v>204</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="9"/>
+        <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>130</v>
-      </c>
-      <c r="B8">
-        <v>37</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <f>SUM(B2:B12)</f>
+        <v>250</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:I12" si="10">SUM(C2:C12)</f>
+        <v>233</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="10"/>
+        <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>40</v>
-      </c>
-      <c r="B9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>70</v>
-      </c>
-      <c r="B10">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>90</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>120</v>
-      </c>
-      <c r="B12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>26</v>
+      <c r="G13">
+        <f>SUM(B2:B13)</f>
+        <v>259</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:I13" si="11">SUM(C2:C13)</f>
+        <v>259</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="11"/>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/tempi-raggiungimento.xlsx
+++ b/tempi-raggiungimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F3CBAF-4AD8-486E-BCD8-8FC3A56DE4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563E2F2-C598-4FAE-9027-1D1CE696F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tempi-raggiungimento.xlsx
+++ b/tempi-raggiungimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563E2F2-C598-4FAE-9027-1D1CE696F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9182C9-627F-4126-AE14-7A6B7D413B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>plot</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>n1</t>
+  </si>
+  <si>
+    <t>n4</t>
+  </si>
+  <si>
+    <t>n5</t>
+  </si>
+  <si>
+    <t>plotz</t>
   </si>
 </sst>
 </file>
@@ -4489,7 +4498,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E13" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4942,17 +4951,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D0D176-E383-4BBD-A8E9-D4BE0E35841E}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -4963,17 +4972,14 @@
       <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4986,302 +4992,230 @@
       <c r="D2">
         <v>26</v>
       </c>
-      <c r="G2">
-        <f>B2</f>
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:I2" si="0">C2</f>
+      <c r="E2">
         <v>24</v>
       </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>26</v>
+      <c r="F2">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>29</v>
-      </c>
-      <c r="G3">
-        <f>B2+B3</f>
-        <v>60</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:I3" si="1">C2+C3</f>
-        <v>36</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
         <v>55</v>
       </c>
+      <c r="E3">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <f>SUM(B2:B4)</f>
-        <v>89</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:I4" si="2">SUM(C2:C4)</f>
-        <v>62</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
         <v>64</v>
       </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>86</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <f>SUM(B2:B5)</f>
-        <v>115</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:I5" si="3">SUM(C2:C5)</f>
-        <v>83</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
         <v>88</v>
       </c>
+      <c r="E5">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>107</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <f>SUM(B2:B6)</f>
-        <v>139</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ref="H6:I6" si="4">SUM(C2:C6)</f>
-        <v>99</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
+      <c r="E6">
+        <v>83</v>
+      </c>
+      <c r="F6">
+        <v>123</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="D7">
-        <v>37</v>
-      </c>
-      <c r="G7">
-        <f>SUM(B2:B7)</f>
-        <v>151</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:I7" si="5">SUM(C2:C7)</f>
-        <v>122</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="5"/>
         <v>137</v>
       </c>
+      <c r="E7">
+        <v>104</v>
+      </c>
+      <c r="F7">
+        <v>147</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="D8">
-        <v>23</v>
-      </c>
-      <c r="G8">
-        <f>SUM(B2:B8)</f>
-        <v>177</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ref="H8:I8" si="6">SUM(C2:C8)</f>
-        <v>159</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="6"/>
         <v>160</v>
       </c>
+      <c r="E8">
+        <v>120</v>
+      </c>
+      <c r="F8">
+        <v>176</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <f>SUM(B2:B9)</f>
-        <v>198</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ref="H9:I9" si="7">SUM(C2:C9)</f>
-        <v>171</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="7"/>
         <v>176</v>
       </c>
+      <c r="E9">
+        <v>143</v>
+      </c>
+      <c r="F9">
+        <v>202</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="D10">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <f>SUM(B2:B10)</f>
-        <v>214</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ref="H10:I10" si="8">SUM(C2:C10)</f>
-        <v>195</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="8"/>
         <v>197</v>
       </c>
+      <c r="E10">
+        <v>180</v>
+      </c>
+      <c r="F10">
+        <v>211</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="D11">
-        <v>26</v>
-      </c>
-      <c r="G11">
-        <f>SUM(B2:B11)</f>
-        <v>226</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ref="H11:I11" si="9">SUM(C2:C11)</f>
+        <v>223</v>
+      </c>
+      <c r="E11">
         <v>204</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="9"/>
+      <c r="F11">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <f>SUM(B2:B12)</f>
-        <v>250</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ref="H12:I12" si="10">SUM(C2:C12)</f>
+        <v>235</v>
+      </c>
+      <c r="E12">
         <v>233</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="10"/>
-        <v>235</v>
+      <c r="F12">
+        <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>259</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="D13">
-        <v>24</v>
-      </c>
-      <c r="G13">
-        <f>SUM(B2:B13)</f>
         <v>259</v>
       </c>
-      <c r="H13">
-        <f t="shared" ref="H13:I13" si="11">SUM(C2:C13)</f>
+      <c r="E13">
         <v>259</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="11"/>
+      <c r="F13">
         <v>259</v>
       </c>
     </row>

--- a/tempi-raggiungimento.xlsx
+++ b/tempi-raggiungimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe Antonelli\Desktop\tesi\Optmised-sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9182C9-627F-4126-AE14-7A6B7D413B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33465AEC-4137-4245-B4F1-CC21B8C8FA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
